--- a/DTMS_The_Dungeon/Tile Index.xlsx
+++ b/DTMS_The_Dungeon/Tile Index.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\DungeonTiles\DTMS_The_Dungeon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="7965" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="98">
   <si>
     <t>PAGE 1</t>
   </si>
@@ -315,12 +320,15 @@
   </si>
   <si>
     <t>Double Iron Open</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -548,11 +556,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -589,53 +610,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,35 +715,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,7 +1031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1011,8 +1042,8 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,9 +2454,9 @@
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
@@ -2611,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM19" sqref="AM19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2723,325 +2754,349 @@
       <c r="AG1" s="11">
         <v>32</v>
       </c>
-      <c r="AH1" s="11">
-        <v>33</v>
+      <c r="AH1" s="11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="27" t="s">
+      <c r="B2" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="27" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="27" t="s">
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="29"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="35"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI3" s="4"/>
     </row>
     <row r="4" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="35"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI4" s="4"/>
     </row>
     <row r="5" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="35"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI5" s="4"/>
     </row>
     <row r="6" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="35"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI6" s="4"/>
     </row>
     <row r="7" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="35"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI7" s="4"/>
     </row>
     <row r="8" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="35"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="32"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI9" s="4"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
     </row>
     <row r="10" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -3071,40 +3126,43 @@
       <c r="I10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="21" t="s">
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="21" t="s">
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="27" t="s">
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="27" t="s">
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="29"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,30 +3193,33 @@
       <c r="I11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,93 +3232,99 @@
       <c r="C12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="49" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="43"/>
+      <c r="H12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="21" t="s">
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="35"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="35"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
     </row>
     <row r="14" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -3275,46 +3342,49 @@
       <c r="E14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="27" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="21" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="27" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="35"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3333,749 +3403,770 @@
       <c r="E15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="35"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
     </row>
     <row r="16" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="27" t="s">
+      <c r="I16" s="33"/>
+      <c r="J16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="27" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="35"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
     </row>
     <row r="17" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="32"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
     </row>
     <row r="18" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="27" t="s">
+      <c r="E18" s="33"/>
+      <c r="H18" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="21" t="s">
+      <c r="I18" s="25"/>
+      <c r="J18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="27" t="s">
+      <c r="K18" s="33"/>
+      <c r="L18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="27" t="s">
+      <c r="M18" s="25"/>
+      <c r="N18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="27" t="s">
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="27" t="s">
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="29"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI18" s="4"/>
-      <c r="AJ18" s="53"/>
-      <c r="AK18" s="53"/>
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
     </row>
     <row r="19" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI19" s="4"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
     </row>
     <row r="20" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="27" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="35"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI20" s="4"/>
-      <c r="AJ20" s="53"/>
-      <c r="AK20" s="53"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
     </row>
     <row r="21" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="35"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI21" s="4"/>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
     </row>
     <row r="22" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="27" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="27" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="27" t="s">
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="27" t="s">
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="35"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI22" s="4"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
     </row>
     <row r="23" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="35"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="35"/>
-      <c r="AJ24" s="53"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ24" s="20"/>
     </row>
     <row r="25" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="32"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ25" s="20"/>
     </row>
     <row r="26" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="27" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="27" t="s">
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="27" t="s">
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="27" t="s">
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="27" t="s">
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="29"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ26" s="20"/>
     </row>
     <row r="27" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="35"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="35"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ27" s="20"/>
     </row>
     <row r="28" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="32"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ28" s="20"/>
     </row>
     <row r="29" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="35"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="31"/>
       <c r="AB29" s="19"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
+      <c r="AH29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
     </row>
     <row r="30" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="54" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="58"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="32"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="28"/>
       <c r="AB30" s="18"/>
       <c r="AC30" s="18"/>
       <c r="AD30" s="18"/>
       <c r="AE30" s="18"/>
       <c r="AF30" s="18"/>
       <c r="AG30" s="18"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
+      <c r="AH30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
     </row>
     <row r="31" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="57"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
@@ -4096,10 +4187,13 @@
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
+      <c r="AH31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
     </row>
     <row r="32" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
@@ -4137,8 +4231,11 @@
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
-    </row>
-    <row r="33" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH32" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -4174,9 +4271,116 @@
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
+      <c r="AH33" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
     <mergeCell ref="B22:I25"/>
     <mergeCell ref="B26:I29"/>
     <mergeCell ref="J26:Q29"/>
@@ -4184,9 +4388,15 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="N16:Q17"/>
-    <mergeCell ref="R16:U17"/>
+    <mergeCell ref="R18:U19"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="F14:G15"/>
+    <mergeCell ref="R26:V30"/>
+    <mergeCell ref="W26:AA30"/>
+    <mergeCell ref="V22:Y25"/>
+    <mergeCell ref="B30:I31"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
     <mergeCell ref="Z2:AG9"/>
     <mergeCell ref="Z10:AG17"/>
     <mergeCell ref="R20:Y21"/>
@@ -4195,43 +4405,36 @@
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="V18:Y19"/>
     <mergeCell ref="N18:Q19"/>
-    <mergeCell ref="R18:U19"/>
+    <mergeCell ref="R12:U13"/>
     <mergeCell ref="J20:Q21"/>
     <mergeCell ref="B20:I21"/>
     <mergeCell ref="Z18:AG25"/>
     <mergeCell ref="J22:M25"/>
     <mergeCell ref="J14:M15"/>
     <mergeCell ref="N22:Q25"/>
-    <mergeCell ref="R26:V30"/>
-    <mergeCell ref="W26:AA30"/>
     <mergeCell ref="B2:I9"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="R10:U11"/>
+    <mergeCell ref="R16:U17"/>
+    <mergeCell ref="N14:Q15"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="N10:Q11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="N12:Q13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
     <mergeCell ref="J2:Q9"/>
     <mergeCell ref="R2:Y9"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="R10:U11"/>
     <mergeCell ref="R14:U15"/>
-    <mergeCell ref="N14:Q15"/>
-    <mergeCell ref="V22:Y25"/>
-    <mergeCell ref="J10:M11"/>
-    <mergeCell ref="N10:Q11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="N12:Q13"/>
-    <mergeCell ref="B30:I31"/>
+    <mergeCell ref="V10:Y13"/>
     <mergeCell ref="AB26:AD28"/>
     <mergeCell ref="AE26:AG28"/>
     <mergeCell ref="R22:U25"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="R12:U13"/>
-    <mergeCell ref="V10:Y13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DTMS_The_Dungeon/Tile Index.xlsx
+++ b/DTMS_The_Dungeon/Tile Index.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Documents\GitHub\DungeonTiles\DTMS_The_Dungeon\"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
   <si>
     <t>PAGE 1</t>
   </si>
@@ -323,13 +323,16 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>(</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +362,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,24 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +607,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,6 +645,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,93 +663,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -837,7 +844,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1042,18 +1049,20 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1106,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1118,7 +1127,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1139,7 +1148,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1160,7 +1169,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1181,7 +1190,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1214,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1226,7 +1235,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1247,7 +1256,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1268,7 +1277,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1289,7 +1298,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1322,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1334,7 +1343,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14">
         <v>3</v>
       </c>
@@ -1355,7 +1364,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15">
         <v>4</v>
       </c>
@@ -1376,7 +1385,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16">
         <v>5</v>
       </c>
@@ -1397,7 +1406,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1430,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18">
         <v>2</v>
       </c>
@@ -1442,7 +1451,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19">
         <v>3</v>
       </c>
@@ -1463,7 +1472,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20">
         <v>4</v>
       </c>
@@ -1484,7 +1493,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21">
         <v>5</v>
       </c>
@@ -1505,7 +1514,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1529,7 +1538,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23">
         <v>2</v>
       </c>
@@ -1550,7 +1559,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24">
         <v>3</v>
       </c>
@@ -1571,7 +1580,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25">
         <v>4</v>
       </c>
@@ -1592,7 +1601,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1613,7 +1622,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1637,7 +1646,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28">
         <v>2</v>
       </c>
@@ -1658,7 +1667,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29">
         <v>3</v>
       </c>
@@ -1679,7 +1688,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>4</v>
       </c>
@@ -1700,7 +1709,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31">
         <v>5</v>
       </c>
@@ -1721,7 +1730,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32">
         <v>6</v>
       </c>
@@ -1742,7 +1751,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33">
         <v>7</v>
       </c>
@@ -1763,7 +1772,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34">
         <v>8</v>
       </c>
@@ -1784,7 +1793,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="B35">
         <v>9</v>
       </c>
@@ -1805,7 +1814,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="B36">
         <v>10</v>
       </c>
@@ -1826,7 +1835,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37">
         <v>11</v>
       </c>
@@ -1847,7 +1856,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38">
         <v>12</v>
       </c>
@@ -1868,7 +1877,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39">
         <v>13</v>
       </c>
@@ -1889,7 +1898,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1913,7 +1922,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41">
         <v>2</v>
       </c>
@@ -1934,7 +1943,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42">
         <v>3</v>
       </c>
@@ -1955,7 +1964,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43">
         <v>4</v>
       </c>
@@ -1976,7 +1985,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44">
         <v>5</v>
       </c>
@@ -1997,7 +2006,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45">
         <v>6</v>
       </c>
@@ -2018,7 +2027,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46">
         <v>7</v>
       </c>
@@ -2039,7 +2048,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47">
         <v>8</v>
       </c>
@@ -2060,7 +2069,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48">
         <v>9</v>
       </c>
@@ -2081,7 +2090,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="B49">
         <v>10</v>
       </c>
@@ -2102,7 +2111,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="B50">
         <v>11</v>
       </c>
@@ -2123,7 +2132,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="B51">
         <v>12</v>
       </c>
@@ -2144,7 +2153,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="B52">
         <v>13</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54">
         <v>2</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="B56">
         <v>2</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="B58">
         <v>2</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="B59">
         <v>3</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="B60">
         <v>4</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="B61">
         <v>5</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="B62">
         <v>6</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="B63">
         <v>7</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="B64">
         <v>8</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7">
       <c r="B65">
         <v>9</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7">
       <c r="B66">
         <v>10</v>
       </c>
@@ -2453,177 +2462,177 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="15.75">
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:6">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:6">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:6">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:6">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -2642,19 +2651,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="35" max="35" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A1" s="11">
         <v>0</v>
       </c>
@@ -2758,1524 +2768,1528 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="19.5" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="23" t="s">
+      <c r="B2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="23" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI2" s="4"/>
     </row>
-    <row r="3" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="19.5" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="31"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
       <c r="AH3" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI3" s="4"/>
     </row>
-    <row r="4" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="19.5" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="41"/>
       <c r="AH4" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="19.5" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="41"/>
       <c r="AH5" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI5" s="4"/>
     </row>
-    <row r="6" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="19.5" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="31"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="41"/>
       <c r="AH6" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI6" s="4"/>
     </row>
-    <row r="7" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="19.5" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="41"/>
       <c r="AH7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI7" s="4"/>
     </row>
-    <row r="8" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="19.5" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="31"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="41"/>
       <c r="AH8" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI8" s="4"/>
     </row>
-    <row r="9" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="28"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="44"/>
       <c r="AH9" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI9" s="4"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-    </row>
-    <row r="10" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+    </row>
+    <row r="10" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="32" t="s">
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="32" t="s">
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="23" t="s">
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="23" t="s">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="25"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="38"/>
       <c r="AH10" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI10" s="4"/>
     </row>
-    <row r="11" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="31"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="41"/>
       <c r="AH11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI11" s="4"/>
     </row>
-    <row r="12" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="32" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="32" t="s">
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="23" t="s">
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="31"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="41"/>
       <c r="AH12" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI12" s="4"/>
     </row>
-    <row r="13" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="31"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="41"/>
       <c r="AH13" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-    </row>
-    <row r="14" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+    </row>
+    <row r="14" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="37"/>
+      <c r="J14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="32" t="s">
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="23" t="s">
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="23" t="s">
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="31"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="41"/>
       <c r="AH14" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI14" s="4"/>
     </row>
-    <row r="15" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="31"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="41"/>
       <c r="AH15" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-    </row>
-    <row r="16" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+    </row>
+    <row r="16" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="23" t="s">
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="23" t="s">
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="31"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="41"/>
       <c r="AH16" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="28"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="44"/>
       <c r="AH17" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI17" s="4"/>
     </row>
-    <row r="18" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="19.5" customHeight="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="H18" s="23" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="32" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="50"/>
+      <c r="L18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="23" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="23" t="s">
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="23" t="s">
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="23" t="s">
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="25"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="38"/>
       <c r="AH18" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI18" s="4"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-    </row>
-    <row r="19" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+    </row>
+    <row r="19" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="31"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="41"/>
       <c r="AH19" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI19" s="4"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-    </row>
-    <row r="20" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+    </row>
+    <row r="20" spans="1:39" ht="19.5" customHeight="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="23" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="23" t="s">
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="31"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="41"/>
       <c r="AH20" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI20" s="4"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-    </row>
-    <row r="21" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+    </row>
+    <row r="21" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="31"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="41"/>
       <c r="AH21" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI21" s="4"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-    </row>
-    <row r="22" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+    </row>
+    <row r="22" spans="1:39" ht="19.5" customHeight="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="23" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="23" t="s">
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="23" t="s">
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="23" t="s">
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="31"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="41"/>
       <c r="AH22" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI22" s="4"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-    </row>
-    <row r="23" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+    </row>
+    <row r="23" spans="1:39" ht="19.5" customHeight="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="31"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="41"/>
       <c r="AH23" s="11" t="s">
         <v>97</v>
       </c>
       <c r="AI23" s="4"/>
     </row>
-    <row r="24" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="19.5" customHeight="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="31"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="41"/>
       <c r="AH24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ24" s="20"/>
-    </row>
-    <row r="25" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="14"/>
+    </row>
+    <row r="25" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="28"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="44"/>
       <c r="AH25" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ25" s="20"/>
-    </row>
-    <row r="26" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="14"/>
+    </row>
+    <row r="26" spans="1:39" ht="19.5" customHeight="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="23" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="23" t="s">
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="23" t="s">
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="23" t="s">
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="23" t="s">
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="25"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="29"/>
       <c r="AH26" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ26" s="20"/>
-    </row>
-    <row r="27" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="14"/>
+    </row>
+    <row r="27" spans="1:39" ht="19.5" customHeight="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="32"/>
       <c r="AH27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ27" s="20"/>
-    </row>
-    <row r="28" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ27" s="14"/>
+    </row>
+    <row r="28" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="35"/>
       <c r="AH28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ28" s="20"/>
-    </row>
-    <row r="29" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ28" s="14"/>
+    </row>
+    <row r="29" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
       <c r="AH29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-    </row>
-    <row r="30" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+    </row>
+    <row r="30" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="55" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="56" t="s">
+      <c r="L30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="58"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
       <c r="AH30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-    </row>
-    <row r="31" spans="1:39" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+    </row>
+    <row r="31" spans="1:39" ht="19.5" customHeight="1" thickBot="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
       <c r="AH31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-    </row>
-    <row r="32" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+    </row>
+    <row r="32" spans="1:39" ht="19.5" customHeight="1">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="19.5" customHeight="1">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
       <c r="AH33" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="19.5" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>97</v>
       </c>
@@ -4377,10 +4391,17 @@
       </c>
       <c r="AH34" s="11" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="19.5" customHeight="1">
+      <c r="E41" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="B2:I9"/>
     <mergeCell ref="B22:I25"/>
     <mergeCell ref="B26:I29"/>
     <mergeCell ref="J26:Q29"/>
@@ -4396,7 +4417,7 @@
     <mergeCell ref="V22:Y25"/>
     <mergeCell ref="B30:I31"/>
     <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I17"/>
     <mergeCell ref="Z2:AG9"/>
     <mergeCell ref="Z10:AG17"/>
     <mergeCell ref="R20:Y21"/>
@@ -4412,7 +4433,10 @@
     <mergeCell ref="J22:M25"/>
     <mergeCell ref="J14:M15"/>
     <mergeCell ref="N22:Q25"/>
-    <mergeCell ref="B2:I9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="R14:U15"/>
+    <mergeCell ref="V10:Y13"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="D18:E19"/>
     <mergeCell ref="J16:M17"/>
@@ -4425,16 +4449,11 @@
     <mergeCell ref="N12:Q13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J2:Q9"/>
-    <mergeCell ref="R2:Y9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="R14:U15"/>
-    <mergeCell ref="V10:Y13"/>
     <mergeCell ref="AB26:AD28"/>
     <mergeCell ref="AE26:AG28"/>
     <mergeCell ref="R22:U25"/>
+    <mergeCell ref="J2:Q9"/>
+    <mergeCell ref="R2:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
